--- a/docs/mobile-attack-v17.0/mobile-attack-v17.0-campaigns.xlsx
+++ b/docs/mobile-attack-v17.0/mobile-attack-v17.0-campaigns.xlsx
@@ -174,13 +174,13 @@
     <t>Hiroki Nagahama, NEC Corporation; Manikantan Srinivasan, NEC Corporation India; Pooja Natarajan, NEC Corporation India</t>
   </si>
   <si>
-    <t>,(Citation: trendmicro_strongpity),(Citation: welivesec_strongpity),(Citation: Talos Promethium June 2020),(Citation: Bitdefender StrongPity June 2020)</t>
+    <t>,(Citation: trendmicro_strongpity),(Citation: welivesec_strongpity),(Citation: Bitdefender StrongPity June 2020),(Citation: Talos Promethium June 2020)</t>
   </si>
   <si>
     <t>,(Citation: Cylance Dust Storm),</t>
   </si>
   <si>
-    <t>(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation Dec2023),(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 01Jun2023),(Citation: SecureList OpTriangulation 21Jun2023),</t>
+    <t>(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation 21Jun2023),(Citation: SecureList OpTriangulation 01Jun2023),(Citation: SecureList OpTriangulation 23Oct2023),(Citation: SecureList OpTriangulation Dec2023),(Citation: SecureList OpTriangulation 21Jun2023),</t>
   </si>
   <si>
     <t>source ID</t>
